--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2474079.623307121</v>
+        <v>2492454.312773241</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>96.36163317610307</v>
+        <v>270.6226856612334</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.9755501377541</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>142.5641369480944</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>294.0578350639868</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>53.56970526848196</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>51.30079766335505</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>70.83586360500138</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>135.352867717798</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.380899675072</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182072</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>64.34190763938928</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.57056562635498</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>29.09084106573913</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.525532102719421</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527405</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>11.252578903378</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>208.9451218977765</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>155.0043432567751</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>157.2425576766705</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>42.20840157554969</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>111.865268964749</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417119</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="U40" t="n">
-        <v>127.4321567831321</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>15.74955790720853</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056512</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20.67844142742926</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.241224882541</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>961.9755262757901</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>576.1872736775458</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F2" t="n">
-        <v>165.2013688879383</v>
+        <v>898.729014069748</v>
       </c>
       <c r="G2" t="n">
-        <v>151.2779648265292</v>
+        <v>480.7652059679349</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942404</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942404</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942404</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>381.5656062325728</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>223.8172336651029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942404</v>
+        <v>554.7078863246074</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2050.019976259699</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1681.057459319287</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>1322.791760712536</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>937.0035081142921</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>526.0176033246846</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>108.0537952228715</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>108.0537952228715</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>2050.019976259699</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>421.6255084618049</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1663.420136195577</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1294.457619255165</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>936.1919206484147</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>550.4036680501704</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>139.4177632605628</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>125.4943591991537</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>125.4943591991537</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>2050.019976259699</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4981,22 +4981,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5021,28 +5021,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>265.3924131404652</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>265.3924131404652</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,25 +5270,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391115</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632085</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1322.849341221355</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1322.849341221355</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.849341221355</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.849341221355</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1434.703578006029</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1434.703578006029</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1210.918162795534</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>921.7895240090928</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V19" t="n">
-        <v>667.105035803206</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>377.6878657662453</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>377.6878657662453</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,25 +5762,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089422</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154061</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795368</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.490562163493</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>388.5543792355861</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>959.9316061372629</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1390269937327</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,25 +6005,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273993</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904388</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>326.6213191924214</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.8287400488913</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6212,52 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121729</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1287.630019156911</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1059.640468258894</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>838.8478891153636</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L30" t="n">
-        <v>3443.999848753676</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.319982033638</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.182609697671</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.3990000507114</v>
+        <v>527.8045051785811</v>
       </c>
       <c r="C31" t="n">
-        <v>562.3990000507114</v>
+        <v>358.8683222506742</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6628,13 +6628,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1287.86059187328</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>998.731953086838</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>744.0474648809511</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>744.0474648809511</v>
+        <v>976.5866352201285</v>
       </c>
       <c r="X31" t="n">
-        <v>744.0474648809511</v>
+        <v>748.5970843221112</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.0474648809511</v>
+        <v>527.8045051785811</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,58 +6692,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>4744.160657054477</v>
       </c>
       <c r="T34" t="n">
-        <v>4702.023706674221</v>
+        <v>4520.375241843984</v>
       </c>
       <c r="U34" t="n">
-        <v>4412.895067887779</v>
+        <v>4231.246603057542</v>
       </c>
       <c r="V34" t="n">
-        <v>4158.210579681892</v>
+        <v>3976.562114851655</v>
       </c>
       <c r="W34" t="n">
-        <v>3868.793409644932</v>
+        <v>3687.144944814694</v>
       </c>
       <c r="X34" t="n">
-        <v>3640.803858746915</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y34" t="n">
-        <v>3640.803858746915</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,61 +6923,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,19 +7011,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>251.3864319045502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>251.3864319045502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7102,13 +7102,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1186.00103929694</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>1186.00103929694</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>896.5838692599799</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X37" t="n">
-        <v>668.5943183619626</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011334</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.075074409316</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.075074409316</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>3753.95843499698</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>4737.305371438605</v>
       </c>
       <c r="U40" t="n">
-        <v>835.416391538794</v>
+        <v>4448.176732652163</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>4193.492244446276</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>3904.075074409316</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>3904.075074409316</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>3904.075074409316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7403,37 +7403,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>260.0156833089119</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7576,13 +7576,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7643,52 +7643,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>545.4651278373165</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.5289449094096</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.5289449094096</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.5289449094096</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>229.6389974114992</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>229.6389974114992</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675562</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670136</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776733</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711665</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>360.5026862907262</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>73.5320452467011</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>182.0340742867953</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>187.7957356844387</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.39378677743781</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>137.4027273976384</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.3064480792179</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.39383318338585</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>275.270419433213</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>12.60243916061273</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>131.5186550798159</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25123,10 +25123,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>64.30500338171873</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>104.2255610710195</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>174.3720834338283</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25552,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>99.23385149845801</v>
       </c>
       <c r="U40" t="n">
-        <v>158.8051956154452</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>130.6844047393606</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25834,25 +25834,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338594</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>128.2353869401069</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26071,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.5229983365955</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371443</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982131</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065624</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="L2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="O2" t="n">
-        <v>586543.5896065626</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065625</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.5455523024</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.5455523024</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230227</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234064.7283650101</v>
+        <v>-231536.4072015675</v>
       </c>
       <c r="C6" t="n">
-        <v>355903.1508495349</v>
+        <v>358431.472012977</v>
       </c>
       <c r="D6" t="n">
-        <v>355903.1508495344</v>
+        <v>358431.4720129775</v>
       </c>
       <c r="E6" t="n">
-        <v>-61942.137609349</v>
+        <v>-59907.31837135224</v>
       </c>
       <c r="F6" t="n">
-        <v>463217.898867547</v>
+        <v>465252.7181055442</v>
       </c>
       <c r="G6" t="n">
-        <v>463217.8988675468</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="H6" t="n">
-        <v>463217.898867547</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="I6" t="n">
-        <v>463217.8988675473</v>
+        <v>465252.7181055436</v>
       </c>
       <c r="J6" t="n">
-        <v>286794.679674954</v>
+        <v>288829.4989129509</v>
       </c>
       <c r="K6" t="n">
-        <v>463217.8988675473</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="L6" t="n">
-        <v>463217.8988675472</v>
+        <v>465252.7181055434</v>
       </c>
       <c r="M6" t="n">
-        <v>328416.8836337101</v>
+        <v>330451.7028717067</v>
       </c>
       <c r="N6" t="n">
-        <v>463217.8988675469</v>
+        <v>465252.7181055441</v>
       </c>
       <c r="O6" t="n">
-        <v>463217.8988675468</v>
+        <v>465252.7181055438</v>
       </c>
       <c r="P6" t="n">
-        <v>463217.898867547</v>
+        <v>465252.7181055436</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>227.5611395882541</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>11.99007165458411</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>76.02051640400035</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>71.21505670702078</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>98.3616109763793</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>174.4088577256821</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>81.09545263985987</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>250.8850709382556</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34299,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34536,10 +34536,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346405</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303347</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467504</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>280.6254601782257</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>389.1274892183199</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2492454.312773241</v>
+        <v>2567983.982438047</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>87.45677193818986</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>270.6226856612334</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>106.4061678803925</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.5641369480944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>294.0578350639868</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>346.8478880214785</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>43.31785343913998</v>
+        <v>72.36234216493929</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>231.3202073019064</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.352867717798</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>13.49928025544023</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>118.4898845065119</v>
+        <v>112.0477024083348</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182072</v>
+        <v>75.1576576381442</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>64.34190763938928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>148.5915632284141</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>271.7818641996879</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>9.011549247898355</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151915</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404422</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>199.4712610200954</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527405</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>88.78103616871253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>11.252578903378</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>193.2758774008206</v>
       </c>
       <c r="W31" t="n">
-        <v>155.0043432567751</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>37.27951805533009</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>42.20840157554969</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>73.20819353839232</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417119</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.10917526498491</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>122.3137095599312</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>286.2277379750017</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056512</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5668126389832</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>20.67844142742926</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>898.729014069748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>480.7652059679349</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.7078863246074</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>898.8784838925785</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>898.8784838925785</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>898.8784838925785</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>898.8784838925785</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>898.8784838925785</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464726</v>
+        <v>470.722514162039</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745.334734821698</v>
+        <v>1039.703785687809</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1039.703785687809</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y8" t="n">
-        <v>2131.93457488582</v>
+        <v>1426.303625751931</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.14823645728</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.14823645728</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.14823645728</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.14823645728</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5081,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1379.229518531123</v>
+        <v>1274.661669737571</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391115</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632085</v>
+        <v>599.7337779135435</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.849341221355</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.849341221355</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.849341221355</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.849341221355</v>
+        <v>599.7337779135435</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4595.498205900218</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0652204802078</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0652204802078</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0652204802078</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>656.1521268978147</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>509.2621793999043</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>800.6837097077201</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>545.9992215018333</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>985.7136853104475</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,46 +5743,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5795,7 +5797,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>242.5343297994526</v>
       </c>
       <c r="K21" t="n">
-        <v>485.4047026089422</v>
+        <v>391.6040140015125</v>
       </c>
       <c r="L21" t="n">
-        <v>732.1698305154061</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795368</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1378.738592121851</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1378.738592121851</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1089.609953335409</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1089.609953335409</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,25 +6001,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018224</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>3925.661817631306</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>3925.661817631306</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>3925.661817631306</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>4146.454396774836</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>3925.661817631306</v>
       </c>
     </row>
     <row r="26">
@@ -6212,52 +6214,52 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121729</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>657.1994242851239</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>657.1994242851239</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473454</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473454</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W28" t="n">
-        <v>1287.630019156911</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X28" t="n">
-        <v>1059.640468258894</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y28" t="n">
-        <v>838.8478891153636</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6463,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6540,22 +6542,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653858</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918009</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6576,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.8045051785811</v>
+        <v>4039.399954839301</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506742</v>
+        <v>4039.399954839301</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>779.063975947119</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913841</v>
+        <v>4441.840998813071</v>
       </c>
       <c r="W31" t="n">
-        <v>976.5866352201285</v>
+        <v>4441.840998813071</v>
       </c>
       <c r="X31" t="n">
-        <v>748.5970843221112</v>
+        <v>4441.840998813071</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.8045051785811</v>
+        <v>4221.048419669541</v>
       </c>
     </row>
     <row r="32">
@@ -6695,37 +6697,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.440640161986</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441948</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916677</v>
+        <v>3815.864295100686</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916677</v>
+        <v>3646.928112172779</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916677</v>
+        <v>3496.811472760443</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916677</v>
+        <v>3496.811472760443</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>3496.811472760443</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>3496.811472760443</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>3496.811472760443</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>4744.160657054477</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>4520.375241843984</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057542</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851655</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814694</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916677</v>
+        <v>4036.656874244216</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916677</v>
+        <v>3815.864295100686</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,28 +6937,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>3243.464647757331</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3573.327275421364</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4242.791036724023</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>4763.09165845977</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>420.3226148324571</v>
+        <v>822.6075462588846</v>
       </c>
       <c r="C37" t="n">
-        <v>251.3864319045502</v>
+        <v>653.6713633309777</v>
       </c>
       <c r="D37" t="n">
-        <v>251.3864319045502</v>
+        <v>503.5547239186419</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F37" t="n">
         <v>208.7516828383384</v>
@@ -7102,13 +7104,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>1225.048590232654</v>
       </c>
       <c r="W37" t="n">
-        <v>420.3226148324571</v>
+        <v>1225.048590232654</v>
       </c>
       <c r="X37" t="n">
-        <v>420.3226148324571</v>
+        <v>1225.048590232654</v>
       </c>
       <c r="Y37" t="n">
-        <v>420.3226148324571</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,25 +7174,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7211,7 +7213,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.607977814708</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211719</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011334</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265284</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>2050.644882483981</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3904.075074409316</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="C40" t="n">
-        <v>3904.075074409316</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="D40" t="n">
-        <v>3753.95843499698</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="E40" t="n">
-        <v>3606.045341414587</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916677</v>
+        <v>499.7590834763452</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>331.5837617961657</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>181.165753344109</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>4737.305371438605</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>4448.176732652163</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>4193.492244446276</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W40" t="n">
-        <v>3904.075074409316</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X40" t="n">
-        <v>3904.075074409316</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="Y40" t="n">
-        <v>3904.075074409316</v>
+        <v>646.6490309742555</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7409,13 +7411,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7436,22 +7438,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>3446.276123502709</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>4250.687701766859</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7576,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765184</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706316</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>241.980548233671</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>877.9296607287212</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7627,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K45" t="n">
-        <v>412.607977814708</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>3540.192194764784</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.687808515591</v>
+        <v>3870.054822428817</v>
       </c>
       <c r="O45" t="n">
-        <v>1943.227873734288</v>
+        <v>4539.518583731477</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>545.4651278373165</v>
+        <v>372.9624052601995</v>
       </c>
       <c r="C46" t="n">
-        <v>376.5289449094096</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>376.5289449094096</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>376.5289449094096</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>229.6389974114992</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>229.6389974114992</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.78763177146</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655735</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W46" t="n">
-        <v>955.1031435655735</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="X46" t="n">
-        <v>727.1135926675562</v>
+        <v>554.6108700904392</v>
       </c>
       <c r="Y46" t="n">
-        <v>727.1135926675562</v>
+        <v>554.6108700904392</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093289</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>158.8724419039333</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>104.874910276575</v>
       </c>
       <c r="K21" t="n">
-        <v>73.53204524670136</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504506</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208073</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>15.83804904622866</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>230.7151863772035</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229593</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>104.874910276575</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711665</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>360.5026862907262</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>41.75994765618395</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>165.9802687929763</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>73.5320452467011</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38.8600230194989</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>182.0340742867953</v>
+        <v>29.47535963978166</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>103.0576765518774</v>
+        <v>109.4998586500545</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>73.45781538006815</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>187.7957356844387</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>17.90200523496344</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.45548819888944</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.9092607357049</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338579</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>26.23839436894173</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>197.4563162298648</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>275.270419433213</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>58.86176592300737</v>
       </c>
       <c r="W31" t="n">
-        <v>131.5186550798159</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>73.13972740894189</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.2255610710195</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>178.9294497854357</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>27.31007019928708</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>99.23385149845801</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.2952603615893281</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338594</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>39.68000845964461</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>128.2353869401069</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365955</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982132</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982131</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065624</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065625</v>
+        <v>586543.5896065632</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.5455523024</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.5455523024</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230235</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015675</v>
+        <v>-231536.4072015678</v>
       </c>
       <c r="C6" t="n">
-        <v>358431.472012977</v>
+        <v>358431.4720129776</v>
       </c>
       <c r="D6" t="n">
         <v>358431.4720129775</v>
       </c>
       <c r="E6" t="n">
-        <v>-59907.31837135224</v>
+        <v>-59907.31837135176</v>
       </c>
       <c r="F6" t="n">
-        <v>465252.7181055442</v>
+        <v>465252.7181055441</v>
       </c>
       <c r="G6" t="n">
-        <v>465252.7181055438</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="H6" t="n">
-        <v>465252.7181055438</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="I6" t="n">
-        <v>465252.7181055436</v>
+        <v>465252.7181055439</v>
       </c>
       <c r="J6" t="n">
-        <v>288829.4989129509</v>
+        <v>288829.4989129507</v>
       </c>
       <c r="K6" t="n">
         <v>465252.7181055438</v>
       </c>
       <c r="L6" t="n">
-        <v>465252.7181055434</v>
+        <v>465252.7181055436</v>
       </c>
       <c r="M6" t="n">
         <v>330451.7028717067</v>
       </c>
       <c r="N6" t="n">
-        <v>465252.7181055441</v>
+        <v>465252.7181055442</v>
       </c>
       <c r="O6" t="n">
-        <v>465252.7181055438</v>
+        <v>465252.7181055436</v>
       </c>
       <c r="P6" t="n">
-        <v>465252.7181055436</v>
+        <v>465252.7181055442</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>295.2770697252907</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>53.3000871031237</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>39.01488014253871</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.02051640400035</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>71.21505670702078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>60.02815772023297</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>123.9289676594879</v>
+        <v>94.88447893368854</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>123.3628343187766</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>250.8850709382556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>153.7475408431876</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,16 +28064,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>19.6607792729252</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31516,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32466,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,43 +32545,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32944,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33418,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33503,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33512,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33527,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33740,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33764,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33977,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33986,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34001,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,31 +34535,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>146.7850892314816</v>
       </c>
       <c r="K21" t="n">
-        <v>224.1074838346405</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768315</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>326.2624260966949</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034995</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734254</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36996,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303347</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>609.7603912467504</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>324.1236498972921</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37233,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>476.4046458434425</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37470,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37637,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>280.6254601782257</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37707,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415096</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37944,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>389.1274892183199</v>
+        <v>236.5687745713064</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2567983.982438047</v>
+        <v>2560966.967546335</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.45677193818986</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>28.71125398700465</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>106.4061678803925</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>314.6536463267104</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>346.8478880214785</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>72.36234216493929</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>231.3202073019064</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>325.255748559886</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>13.49928025544023</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>162.4410217923904</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.0477024083348</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.1576576381442</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>148.5915632284141</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>9.011549247898355</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2496,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>199.4712610200954</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>88.78103616871253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>206.8933087008745</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>193.2758774008206</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>37.27951805533009</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3322,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>73.20819353839232</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.10917526498491</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.2277379750017</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>127.5668126389832</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.778685247039</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.778685247039</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>493.9301532635121</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>82.94424847390451</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921978</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1723320447965</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1723320447965</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>319.1723320447965</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>319.1723320447965</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.8784838925785</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="C5" t="n">
-        <v>898.8784838925785</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D5" t="n">
-        <v>898.8784838925785</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E5" t="n">
-        <v>898.8784838925785</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925785</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.722514162039</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>470.722514162039</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.722514162039</v>
+        <v>181.3053441250782</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1039.703785687809</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1039.703785687809</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727742</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.303625751931</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.14823645728</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942406</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942406</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942406</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942406</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942406</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>261.14823645728</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>261.14823645728</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>261.14823645728</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315615</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>576.3642008327093</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1274.661669737571</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>985.5330309511296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>985.5330309511296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W13" t="n">
-        <v>696.115860914169</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X13" t="n">
-        <v>468.1263100161517</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.7337779135435</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4595.498205900218</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.0652204802078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0652204802078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>804.0652204802078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>656.1521268978147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>509.2621793999043</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>985.7136853104475</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.7136853104475</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,19 +5740,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5761,22 +5761,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5343297994526</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>391.6040140015125</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1378.738592121851</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1378.738592121851</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1089.609953335409</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1089.609953335409</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>800.1927832984481</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>800.1927832984481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.400204154918</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3925.661817631306</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C25" t="n">
-        <v>3925.661817631306</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D25" t="n">
-        <v>3925.661817631306</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E25" t="n">
-        <v>3777.748724048913</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048913</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017357</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="W25" t="n">
-        <v>4347.940519017357</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X25" t="n">
-        <v>4146.454396774836</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y25" t="n">
-        <v>3925.661817631306</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>985.5330309511296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>985.5330309511296</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>696.115860914169</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>468.1263100161517</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4039.399954839301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>4039.399954839301</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4441.840998813071</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4441.840998813071</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>4441.840998813071</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4221.048419669541</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6706,7 +6706,7 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3815.864295100686</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>3646.928112172779</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>3496.811472760443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>3496.811472760443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>3496.811472760443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>3496.811472760443</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>3496.811472760443</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281177</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>4326.074044281177</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W34" t="n">
-        <v>4036.656874244216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>4036.656874244216</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>3815.864295100686</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155872</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>3243.464647757331</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3573.327275421364</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4242.791036724023</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4763.09165845977</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>822.6075462588846</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>653.6713633309777</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1225.048590232654</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1225.048590232654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1225.048590232654</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>499.7590834763452</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>331.5837617961657</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>181.165753344109</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>874.6385818722729</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y40" t="n">
-        <v>646.6490309742555</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3446.276123502709</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>4250.687701766859</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.2811958984814</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.722239872251</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.722239872251</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>877.9296607287212</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3540.192194764784</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3870.054822428817</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4539.518583731477</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.9624052601995</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333287</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>844.0280401273998</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>554.6108700904392</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>554.6108700904392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>554.6108700904392</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093289</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>20.63789864135492</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>158.8724419039333</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>104.874910276575</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504506</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622866</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>230.7151863772035</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>41.75994765618395</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>165.9802687929763</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>38.8600230194989</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>29.47535963978166</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>4.805799306237446</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>109.4998586500545</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>73.45781538006815</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>17.90200523496344</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>188.9092607357049</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>251.3732221796674</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>26.23839436894173</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>197.4563162298648</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>18.81634668816264</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>58.86176592300737</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.13972740894189</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>178.9294497854357</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>27.31007019928708</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25845,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.2952603615893281</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>39.68000845964461</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810573.8713371446</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>810573.8713371443</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982132</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982131</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="N2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="N2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065626</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26444,7 +26444,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
@@ -26453,13 +26453,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015678</v>
+        <v>-231536.4072015677</v>
       </c>
       <c r="C6" t="n">
-        <v>358431.4720129776</v>
+        <v>358431.4720129768</v>
       </c>
       <c r="D6" t="n">
-        <v>358431.4720129775</v>
+        <v>358431.472012977</v>
       </c>
       <c r="E6" t="n">
-        <v>-59907.31837135176</v>
+        <v>-60881.90963107341</v>
       </c>
       <c r="F6" t="n">
-        <v>465252.7181055441</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="G6" t="n">
-        <v>465252.7181055439</v>
+        <v>464278.126845822</v>
       </c>
       <c r="H6" t="n">
-        <v>465252.7181055439</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="I6" t="n">
-        <v>465252.7181055439</v>
+        <v>464278.1268458221</v>
       </c>
       <c r="J6" t="n">
-        <v>288829.4989129507</v>
+        <v>287854.9076532297</v>
       </c>
       <c r="K6" t="n">
-        <v>465252.7181055438</v>
+        <v>464278.1268458221</v>
       </c>
       <c r="L6" t="n">
-        <v>465252.7181055436</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="M6" t="n">
-        <v>330451.7028717067</v>
+        <v>329477.111611985</v>
       </c>
       <c r="N6" t="n">
-        <v>465252.7181055442</v>
+        <v>464278.1268458223</v>
       </c>
       <c r="O6" t="n">
-        <v>465252.7181055436</v>
+        <v>464278.1268458222</v>
       </c>
       <c r="P6" t="n">
-        <v>465252.7181055442</v>
+        <v>464278.1268458222</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990176</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990174</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>295.2770697252907</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>385.0729160337903</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.01488014253871</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>68.0801953367702</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>60.02815772023297</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>94.88447893368854</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>41.2210635773843</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>123.3628343187766</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>23.98522015752701</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>153.7475408431876</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>269.8956035973792</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>365.9658568354579</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>146.7850892314816</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966949</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>541.1395634276697</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>324.1236498972921</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686864</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>476.4046458434425</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>10.73738595686864</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>236.5687745713064</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560966.967546335</v>
+        <v>2565906.230395367</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>28.71125398700465</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0.686945936893071</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.164013692469319</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>314.6536463267104</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.797539652425</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>126.0887386816666</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>325.255748559886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>274.4876658745442</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>162.4410217923904</v>
+        <v>46.8419147542518</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>198.3698148006631</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7644211441605784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>8.328729309133468</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>206.8933087008745</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>34.368196576314</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7184058617563</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9301532635121</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>82.94424847390451</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2696.455206233482</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.277718547652</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2301.643051519715</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2047.881266157806</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1716.818378814236</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1364.049723544122</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>990.5839652830418</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>194.4779671585539</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>58.14905625720215</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228.2778626358873</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358873</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358873</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358873</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982752</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.1098286224635</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250782</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>181.3053441250782</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>181.3053441250782</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>181.3053441250782</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>181.3053441250782</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250782</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.3642008327093</v>
+        <v>872.6898113736385</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X13" t="n">
-        <v>758.0126656629491</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.0126656629491</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5524,19 +5524,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>674.2349604684848</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>674.2349604684848</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>674.2349604684848</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.2349604684848</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6463,10 +6463,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>675.007103038344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155872</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1175.072281694376</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>947.0827307963585</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>726.2901516528284</v>
       </c>
     </row>
     <row r="38">
@@ -7153,37 +7153,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,31 +7192,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,7 +7359,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7374,10 +7374,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.805799306237446</v>
+        <v>120.404906344376</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>23.17774625772617</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>251.3732221796674</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>210.2559240429613</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>18.81634668816264</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>252.154801760277</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371446</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>810573.8713371445</v>
+        <v>810573.8713371444</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>810573.8713371444</v>
+        <v>810573.8713371445</v>
       </c>
     </row>
     <row r="15">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
       <c r="E2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="F2" t="n">
         <v>586543.5896065633</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="I2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="M2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="N2" t="n">
         <v>586543.589606563</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-231536.4072015677</v>
+        <v>-231536.4072015675</v>
       </c>
       <c r="C6" t="n">
+        <v>358431.4720129771</v>
+      </c>
+      <c r="D6" t="n">
         <v>358431.4720129768</v>
       </c>
-      <c r="D6" t="n">
-        <v>358431.472012977</v>
-      </c>
       <c r="E6" t="n">
-        <v>-60881.90963107341</v>
+        <v>-60004.77749732416</v>
       </c>
       <c r="F6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795722</v>
       </c>
       <c r="G6" t="n">
-        <v>464278.126845822</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="H6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="I6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="J6" t="n">
-        <v>287854.9076532297</v>
+        <v>288732.0397869791</v>
       </c>
       <c r="K6" t="n">
-        <v>464278.1268458221</v>
+        <v>465155.2589795715</v>
       </c>
       <c r="L6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="M6" t="n">
-        <v>329477.111611985</v>
+        <v>330354.2437457348</v>
       </c>
       <c r="N6" t="n">
-        <v>464278.1268458223</v>
+        <v>465155.2589795719</v>
       </c>
       <c r="O6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795717</v>
       </c>
       <c r="P6" t="n">
-        <v>464278.1268458222</v>
+        <v>465155.2589795717</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>385.0729160337903</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.79145663791864</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>41.03594549606768</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.0801953367702</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.2210635773843</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>236.0793351214755</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752701</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758289</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>12.03533246204677</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
